--- a/biology/Zoologie/Cimolichthys/Cimolichthys.xlsx
+++ b/biology/Zoologie/Cimolichthys/Cimolichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cimolichthys est un genre éteint de poissons marins à nageoires rayonnées Aulopiformes, seul membre de la famille des Cimolichthyidae[1]. Il a vécu au Crétacé supérieur et ses fossiles ont été découverts aux États-Unis au Canada et aux Pays-Bas.
-L'espèce type est Cimolichthys nepaholica Cope, 1872. La validité des autres espèces, basées sur des fossiles de dents isolées ou de fragments de mâchoires, reste à confirmer[2],[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cimolichthys est un genre éteint de poissons marins à nageoires rayonnées Aulopiformes, seul membre de la famille des Cimolichthyidae. Il a vécu au Crétacé supérieur et ses fossiles ont été découverts aux États-Unis au Canada et aux Pays-Bas.
+L'espèce type est Cimolichthys nepaholica Cope, 1872. La validité des autres espèces, basées sur des fossiles de dents isolées ou de fragments de mâchoires, reste à confirmer,. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimolichthys était un prédateur marin nectonique d'une longueur de 1,5 à 2 mètres. L'animal vivant devait ressembler à un très grand brochet bien qu'il n'ait aucune parenté avec ces poissons.
-Il est caractérisé par un museau dont la longueur est équivalente au diamètre de ses orbites. Ses mâchoires inférieures sont étroites avec plusieurs rangées de dents[3]. Son corps était couvert de grandes écailles épaisses. 
-Un fossile de Cimolichthys au musée d'histoire naturelle de l'Université du Colorado montre un squelette de l'animal avec la plume (ou gladius) d'un jeune calmar géant Tusoteuthis coincée dans son œsophage et donc très vraisemblablement responsable de sa mort[3].
+Il est caractérisé par un museau dont la longueur est équivalente au diamètre de ses orbites. Ses mâchoires inférieures sont étroites avec plusieurs rangées de dents. Son corps était couvert de grandes écailles épaisses. 
+Un fossile de Cimolichthys au musée d'histoire naturelle de l'Université du Colorado montre un squelette de l'animal avec la plume (ou gladius) d'un jeune calmar géant Tusoteuthis coincée dans son œsophage et donc très vraisemblablement responsable de sa mort.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cimolichthys a été considéré comme un salmoniforme du sous-ordre des Enchodontoidei par Goody en 1969[4],[5], avant d'être rattaché au Aulopiformes.
-Hilda M. A. Silva et Valéria Gallo ont montré en 2011 que le sous-ordre des Enchodontoidei n'était pas monophylétique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cimolichthys a été considéré comme un salmoniforme du sous-ordre des Enchodontoidei par Goody en 1969 avant d'être rattaché au Aulopiformes.
+Hilda M. A. Silva et Valéria Gallo ont montré en 2011 que le sous-ordre des Enchodontoidei n'était pas monophylétique.
 </t>
         </is>
       </c>
